--- a/pred_ohlcv/54_21/2020-01-13 HYC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 HYC ohlcv.xlsx
@@ -678,7 +678,7 @@
         <v>2264484.4418</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -782,7 +782,7 @@
         <v>2264736.4418</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>2264736.4418</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>2264736.4418</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>2388762.2951</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>2388762.2951</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>2388762.2951</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>2388762.2951</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>2389021.7658</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>2353215.449</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>2353215.449</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>2353215.449</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>2333405.9205</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>2333405.9205</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>2333405.9205</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>1823433.360499999</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>1823433.360499999</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>1823433.360499999</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>1823433.360499999</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>1775340.637699999</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>1800991.171399999</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>1800991.171399999</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>1800991.171399999</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>1800991.171399999</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>1800991.171399999</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>1800991.171399999</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>1800991.171399999</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>1800991.171399999</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>1800991.171399999</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>1800991.171399999</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>1800991.171399999</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>1522050.004399999</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>1501689.557399999</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-1798742.876741099</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-2050607.485641099</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-2128411.600041099</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-2128149.600041099</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-1364735.447541099</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-1345004.095241099</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-980322.0095410994</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-981322.0095410994</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-955920.5237410994</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-955920.5237410994</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-955920.5237410994</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-955920.5237410994</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-975721.8790410995</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-975721.8790410995</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-975721.8790410995</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-975721.8790410995</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-975721.8790410995</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-975721.8790410995</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-975721.8790410995</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-940141.5868410994</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-1000141.586841099</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-1000141.586841099</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-1179559.673241099</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-2172015.013141099</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-1908051.425941099</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-1977557.961541099</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-1355517.961541099</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-1853765.7986411</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-1853765.7986411</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-1883025.7986411</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-1883025.7986411</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-13 HYC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 HYC ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>1886915.2552</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>2367466.3536</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -756,7 +756,7 @@
         <v>2264736.4418</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>2264736.4418</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>2264736.4418</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>2264736.4418</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -938,7 +938,7 @@
         <v>2388762.2951</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>2389021.7658</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>2353215.449</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>2353215.449</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>2353215.449</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>2333405.9205</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>2333405.9205</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>2333405.9205</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>1823433.360499999</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>1823433.360499999</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-1798742.876741099</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-2050607.485641099</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-2128411.600041099</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-2128149.600041099</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-1006928.823641099</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-1006928.823641099</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-980322.0095410994</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-980322.0095410994</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-980322.0095410994</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-981322.0095410994</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-955920.5237410994</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-955920.5237410994</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-955920.5237410994</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-955920.5237410994</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-955920.5237410994</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-955920.5237410994</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-975721.8790410995</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-975721.8790410995</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-975721.8790410995</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-975721.8790410995</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-975721.8790410995</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-975721.8790410995</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-975721.8790410995</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-940141.5868410994</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-1000141.586841099</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-1000141.586841099</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-1179559.673241099</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-1908051.425941099</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-1977557.961541099</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-1883025.7986411</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
